--- a/field_data/stage_3/Subplot.xlsx
+++ b/field_data/stage_3/Subplot.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="107" windowWidth="15120" windowHeight="8013"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Subplot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -217,10 +217,10 @@
     <t>Douglasienforst</t>
   </si>
   <si>
-    <t>Waldlichtung mit Lärchen</t>
-  </si>
-  <si>
     <t>Junger Eichen Buchen Mischwald</t>
+  </si>
+  <si>
+    <t>Waldlichtung mit Laerchen</t>
   </si>
 </sst>
 </file>
@@ -562,10 +562,13 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -610,22 +613,22 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>477936</v>
+        <v>477610</v>
       </c>
       <c r="D2">
-        <v>5632190</v>
+        <v>5632193</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -637,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
         <v>40</v>
@@ -651,22 +654,22 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>477936</v>
+        <v>477610</v>
       </c>
       <c r="D3">
-        <v>5632190</v>
+        <v>5632193</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -678,36 +681,36 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
         <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>477936</v>
+        <v>477610</v>
       </c>
       <c r="D4">
-        <v>5632190</v>
+        <v>5632193</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -719,33 +722,33 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>477936</v>
+        <v>477610</v>
       </c>
       <c r="D5">
-        <v>5632190</v>
+        <v>5632193</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -757,446 +760,420 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>477770</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5632252</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>477325</v>
+      </c>
+      <c r="D6">
+        <v>5632013</v>
+      </c>
+      <c r="E6" s="1">
+        <v>351</v>
+      </c>
+      <c r="F6">
         <v>40</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>45</v>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>477770</v>
+        <v>477325</v>
       </c>
       <c r="D7">
-        <v>5632252</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>5632013</v>
+      </c>
+      <c r="E7" s="1">
+        <v>351</v>
       </c>
       <c r="F7">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>477325</v>
+      </c>
+      <c r="D8">
+        <v>5632013</v>
+      </c>
+      <c r="E8" s="1">
+        <v>351</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>477770</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5632252</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2">
-        <v>80</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>477770</v>
+        <v>477325</v>
       </c>
       <c r="D9">
-        <v>5632252</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>5632013</v>
+      </c>
+      <c r="E9" s="1">
+        <v>351</v>
       </c>
       <c r="F9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>477770</v>
+        <v>477325</v>
       </c>
       <c r="D10">
-        <v>5632252</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>5632013</v>
+      </c>
+      <c r="E10" s="1">
+        <v>351</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>477629</v>
+        <v>477325</v>
       </c>
       <c r="D11">
-        <v>5632168</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>5632013</v>
+      </c>
+      <c r="E11" s="1">
+        <v>351</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>477183</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5632197</v>
+      </c>
+      <c r="E12" s="3">
+        <v>334</v>
+      </c>
+      <c r="F12" s="2">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>477629</v>
-      </c>
-      <c r="D12">
-        <v>5632168</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" t="s">
-        <v>63</v>
+      <c r="M12" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2">
-        <v>477632</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5632272</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2">
-        <v>90</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>45</v>
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>477183</v>
+      </c>
+      <c r="D13">
+        <v>5632197</v>
+      </c>
+      <c r="E13" s="1">
+        <v>334</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>477632</v>
-      </c>
-      <c r="D14">
-        <v>5632272</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>90</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>477183</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5632197</v>
+      </c>
+      <c r="E14" s="3">
+        <v>334</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
       </c>
       <c r="L14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>477610</v>
-      </c>
-      <c r="D15">
-        <v>5632193</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>477251</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5632763</v>
+      </c>
+      <c r="E15" s="3">
+        <v>255</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>70</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M15" t="s">
-        <v>45</v>
+      <c r="M15" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>477610</v>
+        <v>477251</v>
       </c>
       <c r="D16">
-        <v>5632193</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>5632763</v>
+      </c>
+      <c r="E16" s="1">
+        <v>255</v>
       </c>
       <c r="F16">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L16" t="s">
         <v>42</v>
@@ -1207,37 +1184,37 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>477610</v>
+        <v>477251</v>
       </c>
       <c r="D17">
-        <v>5632193</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>5632763</v>
+      </c>
+      <c r="E17" s="1">
+        <v>255</v>
       </c>
       <c r="F17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
         <v>65</v>
@@ -1245,22 +1222,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18">
-        <v>477610</v>
+        <v>477936</v>
       </c>
       <c r="D18">
-        <v>5632193</v>
+        <v>5632190</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F18">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1272,255 +1249,276 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>477325</v>
+        <v>477936</v>
       </c>
       <c r="D19">
-        <v>5632013</v>
-      </c>
-      <c r="E19" s="1">
-        <v>351</v>
+        <v>5632190</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
       </c>
       <c r="L19" t="s">
         <v>42</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>477325</v>
+        <v>477936</v>
       </c>
       <c r="D20">
-        <v>5632013</v>
-      </c>
-      <c r="E20" s="1">
-        <v>351</v>
+        <v>5632190</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>477325</v>
+        <v>477936</v>
       </c>
       <c r="D21">
-        <v>5632013</v>
-      </c>
-      <c r="E21" s="1">
-        <v>351</v>
+        <v>5632190</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>477770</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5632252</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>30</v>
-      </c>
-      <c r="I21">
-        <v>70</v>
-      </c>
-      <c r="J21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>477325</v>
-      </c>
-      <c r="D22">
-        <v>5632013</v>
-      </c>
-      <c r="E22" s="1">
-        <v>351</v>
-      </c>
-      <c r="F22">
-        <v>40</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>30</v>
-      </c>
-      <c r="I22">
-        <v>70</v>
-      </c>
-      <c r="J22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" t="s">
-        <v>57</v>
+      <c r="M22" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>477325</v>
+        <v>477770</v>
       </c>
       <c r="D23">
-        <v>5632013</v>
-      </c>
-      <c r="E23" s="1">
-        <v>351</v>
+        <v>5632252</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="M23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>477325</v>
-      </c>
-      <c r="D24">
-        <v>5632013</v>
-      </c>
-      <c r="E24" s="1">
-        <v>351</v>
-      </c>
-      <c r="F24">
-        <v>40</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
-      <c r="I24">
-        <v>70</v>
-      </c>
-      <c r="J24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" t="s">
-        <v>63</v>
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>477770</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5632252</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>477324</v>
+        <v>477770</v>
       </c>
       <c r="D25">
-        <v>5632221</v>
-      </c>
-      <c r="E25" s="1">
-        <v>301</v>
+        <v>5632252</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,36 +1527,36 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>477324</v>
+        <v>477770</v>
       </c>
       <c r="D26">
-        <v>5632221</v>
-      </c>
-      <c r="E26" s="1">
-        <v>301</v>
+        <v>5632252</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1567,10 +1565,13 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
       </c>
       <c r="L26" t="s">
         <v>63</v>
@@ -1578,590 +1579,598 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>477222</v>
+        <v>477853</v>
       </c>
       <c r="D27">
-        <v>5632233</v>
-      </c>
-      <c r="E27" s="1">
-        <v>331</v>
+        <v>5632308</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="L27" t="s">
         <v>42</v>
       </c>
       <c r="M27" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>477222</v>
+        <v>477853</v>
       </c>
       <c r="D28">
-        <v>5632233</v>
-      </c>
-      <c r="E28" s="1">
-        <v>331</v>
+        <v>5632308</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>477222</v>
+        <v>477853</v>
       </c>
       <c r="D29">
-        <v>5632233</v>
-      </c>
-      <c r="E29" s="1">
-        <v>331</v>
+        <v>5632308</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="L29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>477853</v>
+      </c>
+      <c r="D30">
+        <v>5632308</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>85</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2">
-        <v>477183</v>
-      </c>
-      <c r="D30" s="2">
-        <v>5632197</v>
-      </c>
-      <c r="E30" s="3">
-        <v>334</v>
-      </c>
-      <c r="F30" s="2">
-        <v>30</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>40</v>
-      </c>
-      <c r="I30" s="2">
-        <v>30</v>
-      </c>
-      <c r="J30" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C31">
-        <v>477183</v>
+        <v>477799</v>
       </c>
       <c r="D31">
-        <v>5632197</v>
+        <v>5632353</v>
       </c>
       <c r="E31" s="1">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>477799</v>
+      </c>
+      <c r="D32">
+        <v>5632353</v>
+      </c>
+      <c r="E32" s="1">
+        <v>270</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
         <v>40</v>
       </c>
-      <c r="I31">
-        <v>30</v>
-      </c>
-      <c r="J31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2">
-        <v>477183</v>
-      </c>
-      <c r="D32" s="2">
-        <v>5632197</v>
-      </c>
-      <c r="E32" s="3">
-        <v>334</v>
-      </c>
-      <c r="F32" s="2">
-        <v>30</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>40</v>
-      </c>
-      <c r="I32" s="2">
-        <v>30</v>
-      </c>
-      <c r="J32" t="s">
-        <v>66</v>
-      </c>
-      <c r="L32" t="s">
-        <v>63</v>
+      <c r="M32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C33">
-        <v>477408</v>
+        <v>477799</v>
       </c>
       <c r="D33">
-        <v>5631622</v>
+        <v>5632353</v>
       </c>
       <c r="E33" s="1">
-        <v>389</v>
+        <v>270</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>477408</v>
+        <v>477799</v>
       </c>
       <c r="D34">
-        <v>5631622</v>
+        <v>5632353</v>
       </c>
       <c r="E34" s="1">
-        <v>389</v>
+        <v>270</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="L34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35">
-        <v>477408</v>
+        <v>477324</v>
       </c>
       <c r="D35">
-        <v>5631622</v>
+        <v>5632221</v>
       </c>
       <c r="E35" s="1">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>90</v>
       </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="L35" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="M35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>477965</v>
+        <v>477324</v>
       </c>
       <c r="D36">
-        <v>5632240</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>5632221</v>
+      </c>
+      <c r="E36" s="1">
+        <v>301</v>
       </c>
       <c r="F36">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
-      </c>
-      <c r="M36" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C37">
-        <v>477965</v>
+        <v>477222</v>
       </c>
       <c r="D37">
-        <v>5632240</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>5632233</v>
+      </c>
+      <c r="E37" s="1">
+        <v>331</v>
       </c>
       <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>80</v>
       </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="H37">
-        <v>30</v>
-      </c>
       <c r="I37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>58</v>
       </c>
       <c r="L37" t="s">
         <v>42</v>
       </c>
       <c r="M37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C38">
-        <v>477965</v>
+        <v>477222</v>
       </c>
       <c r="D38">
-        <v>5632240</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>5632233</v>
+      </c>
+      <c r="E38" s="1">
+        <v>331</v>
       </c>
       <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>80</v>
       </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38">
-        <v>30</v>
-      </c>
       <c r="I38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>58</v>
       </c>
       <c r="L38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>477965</v>
+        <v>477222</v>
       </c>
       <c r="D39">
-        <v>5632240</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>5632233</v>
+      </c>
+      <c r="E39" s="1">
+        <v>331</v>
       </c>
       <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>80</v>
       </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39">
-        <v>30</v>
-      </c>
       <c r="I39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>58</v>
       </c>
       <c r="L39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40">
-        <v>477853</v>
+        <v>477251</v>
       </c>
       <c r="D40">
-        <v>5632308</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>5632763</v>
+      </c>
+      <c r="E40" s="1">
+        <v>255</v>
       </c>
       <c r="F40">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M40" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41">
-        <v>477853</v>
+        <v>477119</v>
       </c>
       <c r="D41">
-        <v>5632308</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>5632272</v>
+      </c>
+      <c r="E41" s="1">
+        <v>245</v>
       </c>
       <c r="F41">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>39</v>
       </c>
       <c r="L41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
       <c r="C42">
-        <v>477853</v>
+        <v>477119</v>
       </c>
       <c r="D42">
-        <v>5632308</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>5632272</v>
+      </c>
+      <c r="E42" s="1">
+        <v>245</v>
       </c>
       <c r="F42">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>39</v>
       </c>
       <c r="L42" t="s">
         <v>65</v>
@@ -2169,34 +2178,37 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
       <c r="C43">
-        <v>477853</v>
+        <v>477119</v>
       </c>
       <c r="D43">
-        <v>5632308</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>5632272</v>
+      </c>
+      <c r="E43" s="1">
+        <v>245</v>
       </c>
       <c r="F43">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>39</v>
       </c>
       <c r="L43" t="s">
         <v>63</v>
@@ -2204,660 +2216,651 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44">
-        <v>477799</v>
+        <v>477000</v>
       </c>
       <c r="D44">
-        <v>5632353</v>
-      </c>
-      <c r="E44" s="1">
-        <v>270</v>
+        <v>5632787</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>59</v>
       </c>
       <c r="L44" t="s">
         <v>42</v>
       </c>
       <c r="M44" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45">
-        <v>477799</v>
+        <v>477000</v>
       </c>
       <c r="D45">
-        <v>5632353</v>
-      </c>
-      <c r="E45" s="1">
-        <v>270</v>
+        <v>5632787</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>59</v>
       </c>
       <c r="L45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M45" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
       </c>
       <c r="C46">
-        <v>477799</v>
+        <v>477000</v>
       </c>
       <c r="D46">
-        <v>5632353</v>
-      </c>
-      <c r="E46" s="1">
-        <v>270</v>
+        <v>5632787</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>59</v>
       </c>
       <c r="L46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47">
-        <v>477799</v>
-      </c>
-      <c r="D47">
-        <v>5632353</v>
-      </c>
-      <c r="E47" s="1">
-        <v>270</v>
-      </c>
-      <c r="F47">
-        <v>50</v>
-      </c>
-      <c r="G47">
-        <v>10</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47">
-        <v>5</v>
-      </c>
-      <c r="J47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" t="s">
-        <v>63</v>
+      <c r="C47" s="2">
+        <v>477105</v>
+      </c>
+      <c r="D47" s="2">
+        <v>5632610</v>
+      </c>
+      <c r="E47" s="3">
+        <v>256</v>
+      </c>
+      <c r="F47" s="2">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" s="2">
+        <v>5</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48">
-        <v>477716</v>
+        <v>477105</v>
       </c>
       <c r="D48">
-        <v>5632425</v>
+        <v>5632610</v>
       </c>
       <c r="E48" s="1">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H48">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L48" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49">
-        <v>477716</v>
+        <v>477105</v>
       </c>
       <c r="D49">
-        <v>5632425</v>
+        <v>5632610</v>
       </c>
       <c r="E49" s="1">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J49" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L49" t="s">
-        <v>42</v>
-      </c>
-      <c r="M49" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50">
-        <v>477716</v>
+        <v>477105</v>
       </c>
       <c r="D50">
-        <v>5632425</v>
+        <v>5632610</v>
       </c>
       <c r="E50" s="1">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J50" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L50" t="s">
-        <v>40</v>
-      </c>
-      <c r="M50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C51">
-        <v>477716</v>
+        <v>477629</v>
       </c>
       <c r="D51">
-        <v>5632425</v>
-      </c>
-      <c r="E51" s="1">
-        <v>313</v>
+        <v>5632168</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>477629</v>
+      </c>
+      <c r="D52">
+        <v>5632168</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>60</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2">
+        <v>477632</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5632272</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2">
         <v>90</v>
       </c>
-      <c r="I51">
-        <v>10</v>
-      </c>
-      <c r="J51" t="s">
-        <v>67</v>
-      </c>
-      <c r="K51" t="s">
-        <v>52</v>
-      </c>
-      <c r="L51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="2">
-        <v>477251</v>
-      </c>
-      <c r="D52" s="2">
-        <v>5632763</v>
-      </c>
-      <c r="E52" s="3">
-        <v>255</v>
-      </c>
-      <c r="F52" s="2">
-        <v>30</v>
-      </c>
-      <c r="G52" s="2">
-        <v>10</v>
-      </c>
-      <c r="H52" s="2">
-        <v>70</v>
-      </c>
-      <c r="I52" s="2">
-        <v>10</v>
-      </c>
-      <c r="J52" t="s">
-        <v>66</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53">
-        <v>477251</v>
-      </c>
-      <c r="D53">
-        <v>5632763</v>
-      </c>
-      <c r="E53" s="1">
-        <v>255</v>
-      </c>
-      <c r="F53">
-        <v>30</v>
-      </c>
-      <c r="G53">
-        <v>10</v>
-      </c>
-      <c r="H53">
-        <v>70</v>
-      </c>
-      <c r="I53">
-        <v>10</v>
-      </c>
-      <c r="J53" t="s">
-        <v>66</v>
-      </c>
-      <c r="K53" t="s">
-        <v>39</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M53" t="s">
-        <v>57</v>
+      <c r="M53" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>477251</v>
+        <v>477632</v>
       </c>
       <c r="D54">
-        <v>5632763</v>
-      </c>
-      <c r="E54" s="1">
-        <v>255</v>
+        <v>5632272</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>10</v>
-      </c>
-      <c r="J54" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K54" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
       </c>
       <c r="C55">
-        <v>477251</v>
+        <v>477965</v>
       </c>
       <c r="D55">
-        <v>5632763</v>
-      </c>
-      <c r="E55" s="1">
-        <v>255</v>
+        <v>5632240</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F55">
+        <v>80</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
         <v>30</v>
       </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="H55">
-        <v>70</v>
-      </c>
       <c r="I55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="L55" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="M55" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
       </c>
       <c r="C56">
-        <v>477119</v>
+        <v>477965</v>
       </c>
       <c r="D56">
-        <v>5632272</v>
-      </c>
-      <c r="E56" s="1">
-        <v>245</v>
+        <v>5632240</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F56">
+        <v>80</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
         <v>30</v>
       </c>
-      <c r="G56">
-        <v>10</v>
-      </c>
-      <c r="H56">
-        <v>10</v>
-      </c>
       <c r="I56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="L56" t="s">
         <v>42</v>
       </c>
       <c r="M56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
       <c r="C57">
-        <v>477119</v>
+        <v>477965</v>
       </c>
       <c r="D57">
-        <v>5632272</v>
-      </c>
-      <c r="E57" s="1">
-        <v>245</v>
+        <v>5632240</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
         <v>30</v>
       </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="H57">
-        <v>10</v>
-      </c>
       <c r="I57">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="L57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58">
-        <v>477119</v>
+        <v>477965</v>
       </c>
       <c r="D58">
-        <v>5632272</v>
-      </c>
-      <c r="E58" s="1">
-        <v>245</v>
+        <v>5632240</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F58">
+        <v>80</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
         <v>30</v>
       </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
       <c r="I58">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="L58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C59">
-        <v>477000</v>
+        <v>477408</v>
       </c>
       <c r="D59">
-        <v>5632787</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>5631622</v>
+      </c>
+      <c r="E59" s="1">
+        <v>389</v>
       </c>
       <c r="F59">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L59" t="s">
         <v>42</v>
       </c>
       <c r="M59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>477000</v>
+        <v>477408</v>
       </c>
       <c r="D60">
-        <v>5632787</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>5631622</v>
+      </c>
+      <c r="E60" s="1">
+        <v>389</v>
       </c>
       <c r="F60">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H60">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J60" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L60" t="s">
         <v>65</v>
@@ -2865,203 +2868,203 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C61">
-        <v>477000</v>
+        <v>477408</v>
       </c>
       <c r="D61">
-        <v>5632787</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>5631622</v>
+      </c>
+      <c r="E61" s="1">
+        <v>389</v>
       </c>
       <c r="F61">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H61">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
-      </c>
-      <c r="K61" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L61" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="2">
-        <v>477105</v>
-      </c>
-      <c r="D62" s="2">
-        <v>5632610</v>
-      </c>
-      <c r="E62" s="3">
-        <v>256</v>
-      </c>
-      <c r="F62" s="2">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2">
-        <v>40</v>
-      </c>
-      <c r="H62" s="2">
-        <v>80</v>
-      </c>
-      <c r="I62" s="2">
-        <v>5</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>51</v>
+      <c r="C62">
+        <v>477716</v>
+      </c>
+      <c r="D62">
+        <v>5632425</v>
+      </c>
+      <c r="E62" s="1">
+        <v>313</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>90</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62" t="s">
+        <v>68</v>
+      </c>
+      <c r="K62" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" t="s">
+        <v>53</v>
+      </c>
+      <c r="M62" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
       </c>
       <c r="C63">
-        <v>477105</v>
+        <v>477716</v>
       </c>
       <c r="D63">
-        <v>5632610</v>
+        <v>5632425</v>
       </c>
       <c r="E63" s="1">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H63">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="K63" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L63" t="s">
         <v>42</v>
       </c>
       <c r="M63" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
       </c>
       <c r="C64">
-        <v>477105</v>
+        <v>477716</v>
       </c>
       <c r="D64">
-        <v>5632610</v>
+        <v>5632425</v>
       </c>
       <c r="E64" s="1">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>90</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64" t="s">
+        <v>68</v>
+      </c>
+      <c r="K64" t="s">
+        <v>52</v>
+      </c>
+      <c r="L64" t="s">
         <v>40</v>
       </c>
-      <c r="H64">
-        <v>80</v>
-      </c>
-      <c r="I64">
-        <v>5</v>
-      </c>
-      <c r="J64" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" t="s">
-        <v>39</v>
-      </c>
-      <c r="L64" t="s">
-        <v>65</v>
+      <c r="M64" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65">
-        <v>477105</v>
+        <v>477716</v>
       </c>
       <c r="D65">
-        <v>5632610</v>
+        <v>5632425</v>
       </c>
       <c r="E65" s="1">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H65">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J65" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="K65" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M69">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:M65">
+    <sortCondition ref="J1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
